--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_12_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_12_36.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3262365.020415347</v>
+        <v>3369594.461813432</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12502432.03437992</v>
+        <v>12383593.4843585</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8059017.00887818</v>
+        <v>8072465.454257823</v>
       </c>
     </row>
     <row r="11">
@@ -662,10 +664,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,10 +676,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>170.0316437883045</v>
+        <v>161.9726758866864</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -814,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -826,16 +828,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>160.8194050301915</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,10 +867,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>149.4752589501469</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
@@ -880,7 +882,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5.247097505315852</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>371.6713678636117</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -987,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734089393</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T6" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U6" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1051,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>35.0147469630078</v>
+        <v>5.629032701388342</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1145,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>210.0946544764307</v>
+        <v>75.49088380154339</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U9" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1291,7 +1293,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,16 +1302,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>26.3395786620747</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>125.3146872343261</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1357,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1418,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881284</v>
@@ -1534,10 +1536,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1573,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>224.7837165195613</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1661,7 +1663,7 @@
         <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1771,16 +1773,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0.8253826161909023</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1816,13 +1818,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>38.2187527515831</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>155.1980648094029</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2014,13 +2016,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,13 +2058,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>245.8796921214435</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2147,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560527</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2239,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.63824106824919</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>37.01163236946537</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2384,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="24">
@@ -2479,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>26.13627195705896</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2615,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174139</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2716,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>107.9721668030643</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2731,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2779,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>109.1623230749912</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>47.4973478028577</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2968,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>130.9398757025646</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3029,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3187,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3196,16 +3198,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,7 +3240,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3247,10 +3249,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>150.672680124696</v>
       </c>
       <c r="X34" t="n">
-        <v>206.20207519321</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3314,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881284</v>
@@ -3427,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>55.52079624060473</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3481,7 +3483,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>186.8063084124839</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3490,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3676,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>172.026033500079</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>47.0890000505814</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,13 +3903,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3916,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>9.146142788179397</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>105.6507867899569</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4132,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>106.1291803787688</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>62.64725059288511</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4192,10 +4194,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1116.060225937135</v>
+        <v>1785.600156360222</v>
       </c>
       <c r="C2" t="n">
-        <v>1116.060225937135</v>
+        <v>1785.600156360222</v>
       </c>
       <c r="D2" t="n">
-        <v>1116.060225937135</v>
+        <v>1427.334457753471</v>
       </c>
       <c r="E2" t="n">
-        <v>1116.060225937135</v>
+        <v>1041.546205155227</v>
       </c>
       <c r="F2" t="n">
-        <v>705.0743211475274</v>
+        <v>630.5603003656197</v>
       </c>
       <c r="G2" t="n">
-        <v>289.3695708718162</v>
+        <v>214.8555500899085</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
@@ -4331,7 +4333,7 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
         <v>795.7553530872915</v>
@@ -4355,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.894479532451</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>2228.894479532451</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V2" t="n">
-        <v>2228.894479532451</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W2" t="n">
-        <v>1876.125824262336</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X2" t="n">
-        <v>1502.660066001257</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="Y2" t="n">
-        <v>1502.660066001257</v>
+        <v>2172.199996424344</v>
       </c>
     </row>
     <row r="3">
@@ -4410,25 +4412,25 @@
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>507.2413987429759</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L3" t="n">
-        <v>801.9449557744476</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M3" t="n">
-        <v>1165.206974733668</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N3" t="n">
-        <v>1552.492103330613</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O3" t="n">
-        <v>1884.562538506775</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>455.9574707874393</v>
+        <v>679.633399870996</v>
       </c>
       <c r="C4" t="n">
-        <v>455.9574707874393</v>
+        <v>510.6972169430891</v>
       </c>
       <c r="D4" t="n">
-        <v>305.8408313751036</v>
+        <v>360.5805775307533</v>
       </c>
       <c r="E4" t="n">
-        <v>305.8408313751036</v>
+        <v>360.5805775307533</v>
       </c>
       <c r="F4" t="n">
-        <v>305.8408313751036</v>
+        <v>213.690630032843</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
@@ -4513,25 +4515,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1485.461010023844</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T4" t="n">
-        <v>1262.482529218579</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="U4" t="n">
-        <v>973.3641917224172</v>
+        <v>1150.699034738196</v>
       </c>
       <c r="V4" t="n">
-        <v>973.3641917224172</v>
+        <v>1150.699034738196</v>
       </c>
       <c r="W4" t="n">
-        <v>683.9470216854567</v>
+        <v>861.2818647012357</v>
       </c>
       <c r="X4" t="n">
-        <v>455.9574707874393</v>
+        <v>861.2818647012357</v>
       </c>
       <c r="Y4" t="n">
-        <v>455.9574707874393</v>
+        <v>861.2818647012357</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1986.901740067214</v>
+        <v>1195.924014069019</v>
       </c>
       <c r="C5" t="n">
-        <v>1617.939223126803</v>
+        <v>1195.924014069019</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>837.658315462269</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>837.658315462269</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>426.6724106726614</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794324</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="W5" t="n">
-        <v>2755.806928794324</v>
+        <v>1955.989612394221</v>
       </c>
       <c r="X5" t="n">
-        <v>2382.341170533244</v>
+        <v>1582.523854133141</v>
       </c>
       <c r="Y5" t="n">
-        <v>1992.201838557432</v>
+        <v>1582.523854133141</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>932.4978103100999</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1295.75982926932</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1683.044957866265</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2015.115393042427</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>249.793641290342</v>
+        <v>477.6642370458055</v>
       </c>
       <c r="C7" t="n">
-        <v>214.4252100145765</v>
+        <v>471.9783454282415</v>
       </c>
       <c r="D7" t="n">
-        <v>214.4252100145765</v>
+        <v>471.9783454282415</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218342</v>
+        <v>471.9783454282415</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.46409084602</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1021.765895288653</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621292</v>
+        <v>767.0814070827661</v>
       </c>
       <c r="W7" t="n">
-        <v>880.2242361621292</v>
+        <v>477.6642370458055</v>
       </c>
       <c r="X7" t="n">
-        <v>652.2346852641118</v>
+        <v>477.6642370458055</v>
       </c>
       <c r="Y7" t="n">
-        <v>431.4421061205817</v>
+        <v>477.6642370458055</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2005.586939522201</v>
+        <v>2361.386702945269</v>
       </c>
       <c r="C8" t="n">
-        <v>1636.624422581789</v>
+        <v>1992.424186004858</v>
       </c>
       <c r="D8" t="n">
-        <v>1278.358723975039</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="E8" t="n">
-        <v>892.5704713767946</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F8" t="n">
-        <v>481.5845665871869</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218342</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.5429342656</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="W8" t="n">
-        <v>2782.326111562134</v>
+        <v>2361.386702945269</v>
       </c>
       <c r="X8" t="n">
-        <v>2782.326111562134</v>
+        <v>2361.386702945269</v>
       </c>
       <c r="Y8" t="n">
-        <v>2392.186779586323</v>
+        <v>2361.386702945269</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>560.1394111735142</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>854.8429682049859</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>212.7293032143256</v>
+        <v>621.6669618009208</v>
       </c>
       <c r="C10" t="n">
-        <v>212.7293032143256</v>
+        <v>452.7307788730139</v>
       </c>
       <c r="D10" t="n">
-        <v>212.7293032143256</v>
+        <v>452.7307788730139</v>
       </c>
       <c r="E10" t="n">
-        <v>212.7293032143256</v>
+        <v>452.7307788730139</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143256</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1609.840485062301</v>
       </c>
       <c r="T10" t="n">
-        <v>1513.842048484845</v>
+        <v>1609.840485062301</v>
       </c>
       <c r="U10" t="n">
-        <v>1387.26155632896</v>
+        <v>1320.722147566139</v>
       </c>
       <c r="V10" t="n">
-        <v>1132.577068123073</v>
+        <v>1320.722147566139</v>
       </c>
       <c r="W10" t="n">
-        <v>843.1598980861128</v>
+        <v>1031.304977529178</v>
       </c>
       <c r="X10" t="n">
-        <v>615.1703471880954</v>
+        <v>803.3154266311606</v>
       </c>
       <c r="Y10" t="n">
-        <v>394.3777680445653</v>
+        <v>803.3154266311606</v>
       </c>
     </row>
     <row r="11">
@@ -5036,7 +5038,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111715</v>
@@ -5045,16 +5047,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5069,10 +5071,10 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5121,25 +5123,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1963.765362972544</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O12" t="n">
-        <v>1963.765362972544</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P12" t="n">
-        <v>2387.388512467612</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>803.8641191832229</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C13" t="n">
-        <v>634.927936255316</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429803</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
         <v>484.8112968429803</v>
@@ -5221,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U13" t="n">
-        <v>1750.40682139984</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V13" t="n">
-        <v>1495.722333193953</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W13" t="n">
-        <v>1206.305163156993</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X13" t="n">
-        <v>1206.305163156993</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
-        <v>985.5125840134626</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5276,19 +5278,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5364,19 +5366,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N15" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1016.58045691144</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>847.6442739835331</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711974</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888043</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5464,22 +5466,22 @@
         <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2264.108249235165</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1975.033022579363</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1936.428221820188</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1647.011051783227</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1419.02150088521</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>1198.22892174168</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168609</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,40 +5527,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5592,25 +5594,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L18" t="n">
-        <v>738.7889117913853</v>
+        <v>119.2902967703784</v>
       </c>
       <c r="M18" t="n">
-        <v>738.7889117913853</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N18" t="n">
-        <v>1366.386875345992</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O18" t="n">
-        <v>1918.296605585279</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P18" t="n">
-        <v>2341.919755080347</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>538.7363435406111</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C19" t="n">
-        <v>538.7363435406111</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282753</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458822</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="20">
@@ -5741,10 +5743,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
@@ -5756,22 +5758,22 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5841,10 +5843,10 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>559.0424953278208</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="C22" t="n">
-        <v>559.0424953278208</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D22" t="n">
-        <v>408.925855915485</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E22" t="n">
-        <v>261.0127623330919</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2425.106274420413</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2242.251440075317</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2022.649975098258</v>
+        <v>2159.677058245683</v>
       </c>
       <c r="U22" t="n">
-        <v>1733.574748442456</v>
+        <v>1870.601831589881</v>
       </c>
       <c r="V22" t="n">
-        <v>1478.890260236569</v>
+        <v>1870.601831589881</v>
       </c>
       <c r="W22" t="n">
-        <v>1189.473090199608</v>
+        <v>1581.18466155292</v>
       </c>
       <c r="X22" t="n">
-        <v>961.4835393015907</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="Y22" t="n">
-        <v>740.6909601580605</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="23">
@@ -5975,61 +5977,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
@@ -6072,16 +6074,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>738.7889117913853</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="M24" t="n">
-        <v>1268.578514636218</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N24" t="n">
-        <v>1896.176478190825</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P24" t="n">
         <v>2319.799627685893</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2420.562808876161</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>2131.487582220359</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1876.803094014472</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M27" t="n">
-        <v>840.8417932021785</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N27" t="n">
-        <v>1468.439756756785</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
-        <v>2020.349486996072</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1057.613315601761</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C28" t="n">
-        <v>888.6771326738537</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U28" t="n">
-        <v>1977.461080510508</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V28" t="n">
-        <v>1977.461080510508</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="W28" t="n">
-        <v>1688.043910473548</v>
+        <v>1618.570148794805</v>
       </c>
       <c r="X28" t="n">
-        <v>1460.05435957553</v>
+        <v>1390.580597896787</v>
       </c>
       <c r="Y28" t="n">
-        <v>1239.261780432</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6449,31 +6451,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6543,22 +6545,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3026.711098656041</v>
+        <v>996.5276398439761</v>
       </c>
       <c r="C31" t="n">
-        <v>3026.711098656041</v>
+        <v>827.5914569160692</v>
       </c>
       <c r="D31" t="n">
-        <v>2876.594459243706</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E31" t="n">
-        <v>2728.681365661313</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>4308.670113596238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>4019.594886940436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>3764.91039873455</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W31" t="n">
-        <v>3475.493228697589</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X31" t="n">
-        <v>3247.503677799572</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="Y31" t="n">
-        <v>3026.711098656041</v>
+        <v>1178.176104674216</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6676,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
         <v>1948.813509611463</v>
@@ -6689,28 +6691,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6719,31 +6721,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6771,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>577.3880777468471</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M33" t="n">
-        <v>1174.766565373399</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N33" t="n">
-        <v>1802.364528928006</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O33" t="n">
-        <v>2354.274259167293</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>533.5582272005026</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C34" t="n">
-        <v>533.5582272005026</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D34" t="n">
-        <v>383.4415877881669</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E34" t="n">
-        <v>235.5284942057738</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F34" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6886,22 +6888,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X34" t="n">
-        <v>935.9992711742725</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y34" t="n">
-        <v>715.2066920307424</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="35">
@@ -6920,10 +6922,10 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,13 +6934,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,13 +6949,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852255</v>
@@ -6971,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7014,25 +7016,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>738.7889117913853</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M36" t="n">
-        <v>738.7889117913853</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>800.6374272687975</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C37" t="n">
-        <v>631.7012443408906</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D37" t="n">
-        <v>631.7012443408906</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>296.7882229101294</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>149.8982754122191</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V37" t="n">
-        <v>1499.692613034015</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W37" t="n">
-        <v>1210.275442997055</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X37" t="n">
-        <v>982.2858920990373</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y37" t="n">
-        <v>982.2858920990373</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="38">
@@ -7160,7 +7162,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,19 +7171,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111706</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075799</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355937</v>
@@ -7254,22 +7256,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>716.6687843969308</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3342.537229081859</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="C40" t="n">
-        <v>3173.601046153952</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D40" t="n">
-        <v>3023.484406741616</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E40" t="n">
-        <v>2875.571313159223</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F40" t="n">
-        <v>2728.681365661313</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>2561.485266376193</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H40" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>4690.833152398593</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>4690.833152398593</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>4517.069482196493</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>4262.384993990607</v>
+        <v>1707.866911086565</v>
       </c>
       <c r="W40" t="n">
-        <v>3972.967823953646</v>
+        <v>1418.449741049605</v>
       </c>
       <c r="X40" t="n">
-        <v>3744.978273055629</v>
+        <v>1190.460190151587</v>
       </c>
       <c r="Y40" t="n">
-        <v>3524.185693912098</v>
+        <v>969.6676110080573</v>
       </c>
     </row>
     <row r="41">
@@ -7400,19 +7402,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7445,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7491,16 +7493,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M42" t="n">
-        <v>1174.766565373399</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N42" t="n">
-        <v>1802.364528928006</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O42" t="n">
         <v>1896.176478190825</v>
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2379.917379832663</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>2273.199413378161</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7627,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7634,22 +7636,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7685,10 +7687,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7722,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N45" t="n">
-        <v>1670.092171589158</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O45" t="n">
-        <v>2222.001901828445</v>
+        <v>2022.116874200839</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2445.740023695907</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3301.825327801252</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C46" t="n">
-        <v>3132.889144873345</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D46" t="n">
-        <v>2982.77250546101</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="E46" t="n">
-        <v>2875.571313159223</v>
+        <v>445.6984928076085</v>
       </c>
       <c r="F46" t="n">
-        <v>2728.681365661313</v>
+        <v>298.8085453096982</v>
       </c>
       <c r="G46" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>4440.9326143059</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>4221.331149328841</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>3932.255922673039</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>3932.255922673039</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>3932.255922673039</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>3704.266371775022</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>3483.473792631492</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8060,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>211.0329012241562</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8073,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>30.36925650589512</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -8298,7 +8300,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>342.9044714621886</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8310,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>186.5911984019039</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8526,13 +8528,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8547,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>54.95314511566465</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23422,10 +23424,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23461,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>61.40075786968285</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23659,16 +23661,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>145.6085800303783</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23704,13 +23706,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>213.9188905722449</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23887,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>24.63391537253443</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23902,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,13 +23946,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>40.30478226780065</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24127,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>44.73700564187249</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>180.3938179578229</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24367,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>191.2691783702293</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24604,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>40.64330621514807</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24652,10 +24654,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>109.4223302771035</v>
       </c>
     </row>
     <row r="29">
@@ -24835,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>101.1181252153547</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24889,19 +24891,19 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>86.46557462472364</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25075,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25084,16 +25086,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25135,10 +25137,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>135.850318211895</v>
       </c>
       <c r="X34" t="n">
-        <v>19.5075801958271</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25315,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>110.0033420516641</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25369,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>65.33133491134413</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25549,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25564,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25594,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>205.0486432732466</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25789,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25804,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>180.5336875992872</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26020,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>40.30478226780033</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>102.8768876993837</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26080,10 +26082,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>705204.8319647888</v>
+        <v>712335.1449660738</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>705204.8319647888</v>
+        <v>712335.1449660738</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>693393.9373166531</v>
+        <v>693393.9373166532</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>693393.9373166531</v>
+        <v>693393.9373166532</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>693393.9373166532</v>
+        <v>693393.9373166531</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>693393.9373166532</v>
+        <v>693393.9373166531</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>693393.9373166532</v>
+        <v>693393.9373166531</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>693393.9373166532</v>
+        <v>693393.9373166531</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26316,46 @@
         <v>738937.5928778546</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778558</v>
+        <v>738937.5928778545</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778553</v>
+        <v>738937.5928778545</v>
       </c>
       <c r="E2" t="n">
+        <v>726431.9397210056</v>
+      </c>
+      <c r="F2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="G2" t="n">
         <v>726431.9397210055</v>
-      </c>
-      <c r="F2" t="n">
-        <v>726431.9397210054</v>
-      </c>
-      <c r="G2" t="n">
-        <v>726431.9397210054</v>
       </c>
       <c r="H2" t="n">
         <v>726431.9397210052</v>
       </c>
       <c r="I2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="J2" t="n">
         <v>726431.9397210053</v>
       </c>
       <c r="K2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="L2" t="n">
         <v>726431.9397210055</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="N2" t="n">
         <v>726431.9397210052</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
+        <v>726431.939721005</v>
+      </c>
+      <c r="P2" t="n">
         <v>726431.9397210053</v>
-      </c>
-      <c r="N2" t="n">
-        <v>726431.9397210054</v>
-      </c>
-      <c r="O2" t="n">
-        <v>726431.9397210055</v>
-      </c>
-      <c r="P2" t="n">
-        <v>726431.9397210055</v>
       </c>
     </row>
     <row r="3">
@@ -26366,37 +26368,37 @@
         <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.7416121057</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>507485.4416245457</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
         <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605445</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>132607.2937289268</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,10 +26420,10 @@
         <v>134318.0002618637</v>
       </c>
       <c r="C4" t="n">
-        <v>87304.34719808328</v>
+        <v>134318.0002618637</v>
       </c>
       <c r="D4" t="n">
-        <v>87304.34719808327</v>
+        <v>134318.0002618637</v>
       </c>
       <c r="E4" t="n">
         <v>8117.312426731974</v>
@@ -26430,28 +26432,28 @@
         <v>8117.312426731974</v>
       </c>
       <c r="G4" t="n">
+        <v>8117.312426731975</v>
+      </c>
+      <c r="H4" t="n">
         <v>8117.312426731974</v>
-      </c>
-      <c r="H4" t="n">
-        <v>8117.312426732016</v>
       </c>
       <c r="I4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="J4" t="n">
+        <v>8117.312426731934</v>
+      </c>
+      <c r="K4" t="n">
+        <v>8117.312426731975</v>
+      </c>
+      <c r="L4" t="n">
         <v>8117.312426731974</v>
       </c>
-      <c r="K4" t="n">
-        <v>8117.312426731974</v>
-      </c>
-      <c r="L4" t="n">
-        <v>8117.312426732036</v>
-      </c>
       <c r="M4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731952</v>
       </c>
       <c r="N4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731975</v>
       </c>
       <c r="O4" t="n">
         <v>8117.312426731974</v>
@@ -26470,10 +26472,10 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="D5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26522,46 +26524,46 @@
         <v>-603069.9633997735</v>
       </c>
       <c r="C6" t="n">
-        <v>340260.5635062736</v>
+        <v>511681.8201761461</v>
       </c>
       <c r="D6" t="n">
-        <v>543699.3051183787</v>
+        <v>511681.8201761461</v>
       </c>
       <c r="E6" t="n">
-        <v>291779.6356630112</v>
+        <v>109706.6558458208</v>
       </c>
       <c r="F6" t="n">
-        <v>617192.0974703664</v>
+        <v>617192.0974703662</v>
       </c>
       <c r="G6" t="n">
-        <v>617192.0974703664</v>
+        <v>617192.0974703663</v>
       </c>
       <c r="H6" t="n">
-        <v>617192.097470366</v>
+        <v>617192.0974703663</v>
       </c>
       <c r="I6" t="n">
-        <v>617192.0974703664</v>
+        <v>617192.0974703662</v>
       </c>
       <c r="J6" t="n">
         <v>449586.9196603837</v>
       </c>
       <c r="K6" t="n">
-        <v>568082.0047643121</v>
+        <v>617192.0974703663</v>
       </c>
       <c r="L6" t="n">
-        <v>617192.097470366</v>
+        <v>617192.0974703666</v>
       </c>
       <c r="M6" t="n">
-        <v>532137.0695348544</v>
+        <v>484584.8037414395</v>
       </c>
       <c r="N6" t="n">
-        <v>617192.0974703664</v>
+        <v>617192.0974703662</v>
       </c>
       <c r="O6" t="n">
-        <v>617192.0974703665</v>
+        <v>617192.0974703662</v>
       </c>
       <c r="P6" t="n">
-        <v>617192.0974703665</v>
+        <v>617192.0974703663</v>
       </c>
     </row>
   </sheetData>
@@ -26738,10 +26740,10 @@
         <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,10 +26792,10 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.584832100039</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26808,10 +26810,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26960,25 +26962,25 @@
         <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>155.7118084757589</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>433.9106082241344</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26990,7 +26992,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27012,13 +27014,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>190.8166233022538</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022538</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,13 +27260,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022538</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,10 +27384,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>130.9869087741009</v>
+        <v>139.045876675719</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -27439,13 +27441,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27546,16 +27548,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>5.487195014612723</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,10 +27587,10 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>45.18720141159054</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27600,7 +27602,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>377.4867441581647</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>39.87633490934229</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27676,13 +27678,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>132.23207413562</v>
+        <v>161.6177883972395</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,7 +27824,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27834,13 +27836,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27868,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>139.1463142409823</v>
+        <v>273.7500849158696</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,7 +28013,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28020,16 +28022,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.3228816996628</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>160.8971509712868</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28077,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -29335,7 +29337,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>-5.780283390417846e-13</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31841,7 +31843,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31850,19 +31852,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>230.1272937575231</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>270.3182595810212</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32084,13 +32086,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>379.4203056753705</v>
       </c>
       <c r="N15" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>370.9642309107746</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
@@ -32099,7 +32101,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>164.2853229338202</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>353.2560498238277</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32561,13 +32563,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>468.3778278510275</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32792,34 +32794,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>616.5397119226052</v>
       </c>
       <c r="M24" t="n">
-        <v>677.2750468965965</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,13 +33016,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33029,34 +33031,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>246.9596973201444</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>213.1625787491746</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>545.3845241768652</v>
       </c>
       <c r="M30" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33500,13 +33502,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>616.5397119226058</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33515,10 +33517,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>334.7693860946154</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33646,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>726.7533607666132</v>
       </c>
       <c r="N36" t="n">
-        <v>742.935485982477</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33974,37 +33976,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>279.2419622547062</v>
+        <v>248.7449369209194</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34126,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34211,19 +34213,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>620.1193660647499</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>237.3557891543625</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
@@ -34442,34 +34444,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>232.75998908852</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>211.3773391483997</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34778,7 +34780,7 @@
         <v>62.98022089091742</v>
       </c>
       <c r="K3" t="n">
-        <v>397.620397467641</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378502</v>
@@ -34793,13 +34795,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634695</v>
+        <v>280.0487856294274</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>436.2707275254362</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>304.632674239197</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35431,7 +35433,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,7 +35491,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35498,19 +35500,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>98.78558167418976</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>130.3364854949997</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35732,13 +35734,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>228.3679864663302</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
@@ -35747,7 +35749,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>25.73094315394599</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>213.2742757378062</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36209,13 +36211,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,22 +36442,22 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>477.985332142731</v>
       </c>
       <c r="M24" t="n">
-        <v>535.1410129745782</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,25 +36679,25 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>108.4053175402702</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>73.18080466315305</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,25 +36913,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>406.830144396991</v>
       </c>
       <c r="M30" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37148,13 +37150,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37163,10 +37165,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>200.7949786802852</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>584.6193268445949</v>
       </c>
       <c r="N36" t="n">
-        <v>611.5937738991437</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,25 +37624,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>140.6875824748321</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37859,19 +37861,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>94.75954470991805</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
@@ -38026,7 +38028,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
         <v>696.488651224316</v>
@@ -38090,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>98.78558167418976</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>71.39556506237817</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_12_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_12_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3369594.461813432</v>
+        <v>3365457.30456328</v>
       </c>
     </row>
     <row r="7">
@@ -661,25 +661,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>161.9726758866864</v>
+        <v>220.8789552701361</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -718,13 +718,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -828,16 +828,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>78.18089085363205</v>
       </c>
       <c r="G4" t="n">
-        <v>160.8194050301915</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -876,16 +876,16 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -898,25 +898,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>371.6713678636117</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>59.48550737293719</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>5.629032701388342</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>105.5257324397438</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>75.49088380154339</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>196.6997841156786</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1296,7 +1296,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1308,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>26.3395786620747</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>197.4147107719971</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710085</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1426,7 +1426,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1536,7 +1536,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>152.3242997534473</v>
       </c>
       <c r="U13" t="n">
-        <v>172.0260335000785</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="15">
@@ -1770,19 +1770,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8253826161909023</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2058,13 +2058,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>245.8796921214435</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>137.761022548695</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>37.01163236946537</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>26.13627195705896</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2617,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174139</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2718,13 +2718,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,13 +2766,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>160.1763464053464</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>109.1623230749912</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>47.4973478028577</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3012,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>185.4048731212358</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3249,10 +3249,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>150.672680124696</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3438,10 +3438,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>55.52079624060473</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>75.00788511618036</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3663,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3720,7 +3720,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>47.0890000505814</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3903,13 +3903,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>9.146142788179397</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3954,13 +3954,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>245.8796921214428</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>62.64725059288511</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>239.7247859410132</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1785.600156360222</v>
+        <v>728.3028554854573</v>
       </c>
       <c r="C2" t="n">
-        <v>1785.600156360222</v>
+        <v>359.3403385450455</v>
       </c>
       <c r="D2" t="n">
-        <v>1427.334457753471</v>
+        <v>359.3403385450455</v>
       </c>
       <c r="E2" t="n">
-        <v>1041.546205155227</v>
+        <v>359.3403385450455</v>
       </c>
       <c r="F2" t="n">
-        <v>630.5603003656197</v>
+        <v>352.3948377958421</v>
       </c>
       <c r="G2" t="n">
-        <v>214.8555500899085</v>
+        <v>340.730491560535</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4366,16 +4366,16 @@
         <v>2562.339328400155</v>
       </c>
       <c r="V2" t="n">
-        <v>2562.339328400155</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="W2" t="n">
-        <v>2562.339328400155</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="X2" t="n">
-        <v>2562.339328400155</v>
+        <v>1505.042027525391</v>
       </c>
       <c r="Y2" t="n">
-        <v>2172.199996424344</v>
+        <v>1114.902695549579</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
@@ -4415,22 +4415,22 @@
         <v>560.1394111735141</v>
       </c>
       <c r="L3" t="n">
-        <v>854.8429682049857</v>
+        <v>909.2465818694948</v>
       </c>
       <c r="M3" t="n">
-        <v>1218.104987164206</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N3" t="n">
-        <v>1605.390115761151</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O3" t="n">
-        <v>1937.460550937313</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710446</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4448,10 +4448,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>679.633399870996</v>
+        <v>871.8507152289181</v>
       </c>
       <c r="C4" t="n">
-        <v>510.6972169430891</v>
+        <v>702.9145323010113</v>
       </c>
       <c r="D4" t="n">
-        <v>360.5805775307533</v>
+        <v>552.7978928886755</v>
       </c>
       <c r="E4" t="n">
-        <v>360.5805775307533</v>
+        <v>552.7978928886755</v>
       </c>
       <c r="F4" t="n">
-        <v>213.690630032843</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800311</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
@@ -4515,25 +4515,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1439.817372234359</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1439.817372234359</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1150.699034738196</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V4" t="n">
-        <v>1150.699034738196</v>
+        <v>1092.643294372448</v>
       </c>
       <c r="W4" t="n">
-        <v>861.2818647012357</v>
+        <v>1092.643294372448</v>
       </c>
       <c r="X4" t="n">
-        <v>861.2818647012357</v>
+        <v>1092.643294372448</v>
       </c>
       <c r="Y4" t="n">
-        <v>861.2818647012357</v>
+        <v>871.8507152289181</v>
       </c>
     </row>
     <row r="5">
@@ -4543,40 +4543,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1195.924014069019</v>
+        <v>2051.040280862503</v>
       </c>
       <c r="C5" t="n">
-        <v>1195.924014069019</v>
+        <v>1682.077763922091</v>
       </c>
       <c r="D5" t="n">
-        <v>837.658315462269</v>
+        <v>1323.812065315341</v>
       </c>
       <c r="E5" t="n">
-        <v>837.658315462269</v>
+        <v>938.0238127170967</v>
       </c>
       <c r="F5" t="n">
-        <v>426.6724106726614</v>
+        <v>527.0379079274892</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800311</v>
+        <v>111.333157651778</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800311</v>
+        <v>111.333157651778</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U5" t="n">
-        <v>2308.758267664335</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="V5" t="n">
-        <v>2308.758267664335</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="W5" t="n">
-        <v>1955.989612394221</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="X5" t="n">
-        <v>1582.523854133141</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="Y5" t="n">
-        <v>1582.523854133141</v>
+        <v>2437.640120926625</v>
       </c>
     </row>
     <row r="6">
@@ -4643,25 +4643,25 @@
         <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310614</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L6" t="n">
-        <v>932.4978103100999</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M6" t="n">
-        <v>1295.75982926932</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N6" t="n">
-        <v>1683.044957866265</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O6" t="n">
-        <v>2015.115393042427</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P6" t="n">
         <v>2447.023413292609</v>
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>477.6642370458055</v>
+        <v>621.5776595052477</v>
       </c>
       <c r="C7" t="n">
-        <v>471.9783454282415</v>
+        <v>452.6414765773408</v>
       </c>
       <c r="D7" t="n">
-        <v>471.9783454282415</v>
+        <v>452.6414765773408</v>
       </c>
       <c r="E7" t="n">
-        <v>471.9783454282415</v>
+        <v>304.7283829949477</v>
       </c>
       <c r="F7" t="n">
-        <v>325.0883979303312</v>
+        <v>157.8384354970373</v>
       </c>
       <c r="G7" t="n">
-        <v>157.1019332386097</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386097</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4749,28 +4749,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1310.884232784815</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1021.765895288653</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V7" t="n">
-        <v>767.0814070827661</v>
+        <v>1092.643294372448</v>
       </c>
       <c r="W7" t="n">
-        <v>477.6642370458055</v>
+        <v>803.2261243354874</v>
       </c>
       <c r="X7" t="n">
-        <v>477.6642370458055</v>
+        <v>803.2261243354874</v>
       </c>
       <c r="Y7" t="n">
-        <v>477.6642370458055</v>
+        <v>803.2261243354874</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2361.386702945269</v>
+        <v>1586.913505738324</v>
       </c>
       <c r="C8" t="n">
-        <v>1992.424186004858</v>
+        <v>1217.950988797912</v>
       </c>
       <c r="D8" t="n">
-        <v>1634.158487398107</v>
+        <v>859.685290191162</v>
       </c>
       <c r="E8" t="n">
-        <v>1248.370234799863</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F8" t="n">
-        <v>837.3843300102556</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L8" t="n">
         <v>795.7553530872917</v>
@@ -4822,34 +4822,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W8" t="n">
-        <v>2361.386702945269</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X8" t="n">
-        <v>2361.386702945269</v>
+        <v>2363.652677778257</v>
       </c>
       <c r="Y8" t="n">
-        <v>2361.386702945269</v>
+        <v>1973.513345802446</v>
       </c>
     </row>
     <row r="9">
@@ -4859,46 +4859,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>560.1394111735142</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L9" t="n">
-        <v>854.8429682049859</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M9" t="n">
-        <v>1218.104987164206</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1605.390115761151</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
-        <v>1937.460550937313</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
         <v>2239.046898434118</v>
@@ -4916,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4925,7 +4925,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,49 +4938,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>621.6669618009208</v>
+        <v>517.189556406156</v>
       </c>
       <c r="C10" t="n">
-        <v>452.7307788730139</v>
+        <v>348.2533734782492</v>
       </c>
       <c r="D10" t="n">
-        <v>452.7307788730139</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="E10" t="n">
-        <v>452.7307788730139</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
-        <v>305.8408313751036</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -4989,25 +4989,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1609.840485062301</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1609.840485062301</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1320.722147566139</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1320.722147566139</v>
+        <v>1437.037321314904</v>
       </c>
       <c r="W10" t="n">
-        <v>1031.304977529178</v>
+        <v>1147.620151277943</v>
       </c>
       <c r="X10" t="n">
-        <v>803.3154266311606</v>
+        <v>919.6306003799259</v>
       </c>
       <c r="Y10" t="n">
-        <v>803.3154266311606</v>
+        <v>698.8380212363958</v>
       </c>
     </row>
     <row r="11">
@@ -5035,46 +5035,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>409.1360811687895</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N12" t="n">
-        <v>1767.889897446606</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O12" t="n">
-        <v>2319.799627685893</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>868.6673633290468</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.96308358026</v>
+        <v>2043.199616443681</v>
       </c>
       <c r="U13" t="n">
-        <v>2273.199413378161</v>
+        <v>2043.199616443681</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1788.515128237794</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1499.097958200834</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1271.108407302816</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>1050.315828159286</v>
       </c>
     </row>
     <row r="14">
@@ -5272,16 +5272,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332388</v>
@@ -5293,25 +5293,25 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>261.8464821474262</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5497,28 +5497,28 @@
         <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,7 +5527,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.422291068011</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>119.2902967703784</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5706,19 +5706,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1729.097755135313</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5743,40 +5743,40 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
         <v>4606.285157492578</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
@@ -5840,19 +5840,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N21" t="n">
-        <v>1670.092171589158</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O21" t="n">
-        <v>2222.001901828445</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>950.7540666811333</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C22" t="n">
-        <v>781.8178837532264</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D22" t="n">
-        <v>631.7012443408906</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>379.8591585748671</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>232.9692110769568</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T22" t="n">
-        <v>2159.677058245683</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U22" t="n">
-        <v>1870.601831589881</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V22" t="n">
-        <v>1870.601831589881</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W22" t="n">
-        <v>1581.18466155292</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X22" t="n">
-        <v>1353.195110654903</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y22" t="n">
-        <v>1132.402531511373</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="23">
@@ -5977,25 +5977,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
@@ -6004,34 +6004,34 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>716.6687843969303</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969303</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951537</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6171,28 +6171,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2420.562808876161</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>2131.487582220359</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1876.803094014472</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6214,22 +6214,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332386</v>
@@ -6238,7 +6238,7 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
@@ -6247,22 +6247,22 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
         <v>3467.980956852888</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>352.5519571452613</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718132</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263526</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356194</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6414,22 +6414,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2197.062545487568</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>1907.987318831765</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1907.987318831765</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1618.570148794805</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1390.580597896787</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6460,25 +6460,25 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6548,19 +6548,19 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>980.1499206998682</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1577.52840832642</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>996.5276398439761</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C31" t="n">
-        <v>827.5914569160692</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232836</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W31" t="n">
-        <v>1398.968683817746</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X31" t="n">
-        <v>1398.968683817746</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y31" t="n">
-        <v>1178.176104674216</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="32">
@@ -6697,22 +6697,22 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6782,22 +6782,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>716.6687843969308</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6888,22 +6888,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1501.108204237296</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6922,43 +6922,43 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7010,28 +7010,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1501.8401750111</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2129.438138565707</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>763.7541388327652</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C37" t="n">
-        <v>594.8179559048583</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D37" t="n">
-        <v>444.7013164925226</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E37" t="n">
-        <v>296.7882229101294</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F37" t="n">
-        <v>149.8982754122191</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.2863919474</v>
+        <v>1901.695539989114</v>
       </c>
       <c r="V37" t="n">
-        <v>1683.601903741513</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="W37" t="n">
-        <v>1394.184733704552</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X37" t="n">
-        <v>1166.195182806535</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y37" t="n">
-        <v>945.4026036630049</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="38">
@@ -7171,22 +7171,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111706</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075799</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,25 +7250,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>352.5519571452613</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718132</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>788.0191461778176</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>788.0191461778176</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D40" t="n">
-        <v>637.9025067654818</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>489.9894131830887</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1707.866911086565</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1418.449741049605</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1190.460190151587</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>969.6676110080573</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7405,25 +7405,25 @@
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7493,22 +7493,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876688</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C43" t="n">
-        <v>411.9631215597619</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D43" t="n">
-        <v>411.9631215597619</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>411.9631215597619</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>244.7670222746419</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>103.0551911168399</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179085</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7651,19 +7651,19 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7730,25 +7730,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>842.6091804069456</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1470.207143961552</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2022.116874200839</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2445.740023695907</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>762.5477693179085</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>593.6115863900017</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>593.6115863900017</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>445.6984928076085</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>298.8085453096982</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
   </sheetData>
@@ -8063,7 +8063,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>54.95314511566568</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8075,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>30.36925650589512</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8297,10 +8297,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>342.9044714621886</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>186.5911984019039</v>
+        <v>265.0304328515146</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154988</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>54.95314511566465</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>-5.458725572646025e-13</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -23424,7 +23424,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>65.08115057384094</v>
       </c>
       <c r="U13" t="n">
-        <v>114.1584408891656</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>145.6085800303783</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,13 +23946,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>40.30478226780065</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>27.76311574357382</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,16 +24177,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>180.3938179578229</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>191.2691783702293</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24606,13 +24606,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,13 +24654,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>57.22910392194191</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>109.4223302771035</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>101.1181252153547</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>101.1181252153552</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25137,10 +25137,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>135.850318211895</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>110.0033420516641</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>211.1765892730638</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25551,22 +25551,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>205.0486432732466</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25791,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,13 +25842,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>6.257951202385186</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26022,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>102.8768876993837</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>712335.1449660738</v>
+        <v>712335.1449660739</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>693393.9373166532</v>
+        <v>693393.9373166531</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>693393.9373166532</v>
+        <v>693393.9373166531</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>693393.9373166532</v>
+        <v>693393.9373166531</v>
       </c>
     </row>
     <row r="11">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>693393.9373166531</v>
+        <v>693393.9373166532</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>738937.5928778544</v>
+      </c>
+      <c r="C2" t="n">
         <v>738937.5928778546</v>
-      </c>
-      <c r="C2" t="n">
-        <v>738937.5928778545</v>
       </c>
       <c r="D2" t="n">
         <v>738937.5928778545</v>
       </c>
       <c r="E2" t="n">
-        <v>726431.9397210056</v>
+        <v>726431.9397210057</v>
       </c>
       <c r="F2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="G2" t="n">
         <v>726431.9397210052</v>
-      </c>
-      <c r="G2" t="n">
-        <v>726431.9397210055</v>
       </c>
       <c r="H2" t="n">
         <v>726431.9397210052</v>
       </c>
       <c r="I2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="J2" t="n">
+        <v>726431.9397210055</v>
+      </c>
+      <c r="K2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="L2" t="n">
         <v>726431.9397210053</v>
       </c>
-      <c r="J2" t="n">
+      <c r="M2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="N2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="O2" t="n">
         <v>726431.9397210053</v>
       </c>
-      <c r="K2" t="n">
-        <v>726431.9397210053</v>
-      </c>
-      <c r="L2" t="n">
-        <v>726431.9397210055</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>726431.9397210054</v>
-      </c>
-      <c r="N2" t="n">
-        <v>726431.9397210052</v>
-      </c>
-      <c r="O2" t="n">
-        <v>726431.939721005</v>
-      </c>
-      <c r="P2" t="n">
-        <v>726431.9397210053</v>
       </c>
     </row>
     <row r="3">
@@ -26374,19 +26374,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245457</v>
+        <v>507485.4416245462</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>167605.1778099826</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289268</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,40 +26420,40 @@
         <v>134318.0002618637</v>
       </c>
       <c r="C4" t="n">
-        <v>134318.0002618637</v>
+        <v>134318.0002618638</v>
       </c>
       <c r="D4" t="n">
-        <v>134318.0002618637</v>
+        <v>134318.0002618638</v>
       </c>
       <c r="E4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731934</v>
       </c>
       <c r="F4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="G4" t="n">
-        <v>8117.312426731975</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="H4" t="n">
+        <v>8117.312426731934</v>
+      </c>
+      <c r="I4" t="n">
+        <v>8117.312426731936</v>
+      </c>
+      <c r="J4" t="n">
         <v>8117.312426731974</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>8117.312426731974</v>
-      </c>
-      <c r="J4" t="n">
-        <v>8117.312426731934</v>
-      </c>
-      <c r="K4" t="n">
-        <v>8117.312426731975</v>
       </c>
       <c r="L4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="M4" t="n">
-        <v>8117.312426731952</v>
+        <v>8117.312426732015</v>
       </c>
       <c r="N4" t="n">
-        <v>8117.312426731975</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="O4" t="n">
         <v>8117.312426731974</v>
@@ -26472,10 +26472,10 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-603069.9633997735</v>
+        <v>-603069.9633997737</v>
       </c>
       <c r="C6" t="n">
         <v>511681.8201761461</v>
       </c>
       <c r="D6" t="n">
-        <v>511681.8201761461</v>
+        <v>511681.820176146</v>
       </c>
       <c r="E6" t="n">
-        <v>109706.6558458208</v>
+        <v>109359.2765914636</v>
       </c>
       <c r="F6" t="n">
-        <v>617192.0974703662</v>
+        <v>616844.7182160092</v>
       </c>
       <c r="G6" t="n">
-        <v>617192.0974703663</v>
+        <v>616844.7182160092</v>
       </c>
       <c r="H6" t="n">
-        <v>617192.0974703663</v>
+        <v>616844.7182160092</v>
       </c>
       <c r="I6" t="n">
-        <v>617192.0974703662</v>
+        <v>616844.7182160094</v>
       </c>
       <c r="J6" t="n">
-        <v>449586.9196603837</v>
+        <v>449239.5404060269</v>
       </c>
       <c r="K6" t="n">
-        <v>617192.0974703663</v>
+        <v>616844.7182160093</v>
       </c>
       <c r="L6" t="n">
-        <v>617192.0974703666</v>
+        <v>616844.7182160093</v>
       </c>
       <c r="M6" t="n">
-        <v>484584.8037414395</v>
+        <v>484237.4244870824</v>
       </c>
       <c r="N6" t="n">
-        <v>617192.0974703662</v>
+        <v>616844.7182160094</v>
       </c>
       <c r="O6" t="n">
-        <v>617192.0974703662</v>
+        <v>616844.7182160093</v>
       </c>
       <c r="P6" t="n">
-        <v>617192.0974703663</v>
+        <v>616844.7182160094</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26792,28 +26792,28 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="I4" t="n">
         <v>1172.708288099648</v>
       </c>
-      <c r="F4" t="n">
+      <c r="J4" t="n">
         <v>1172.708288099648</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1172.708288099648</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1172.708288099648</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26968,19 +26968,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241344</v>
+        <v>433.9106082241349</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26992,7 +26992,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>139.045876675719</v>
+        <v>80.13959729226929</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27438,13 +27438,13 @@
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27548,16 +27548,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>67.2401571692992</v>
       </c>
       <c r="G4" t="n">
-        <v>5.487195014612723</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,7 +27587,7 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
@@ -27596,16 +27596,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>39.87633490934229</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>6.224405299533309</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>161.6177883972395</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>60.78086760506034</v>
       </c>
       <c r="H7" t="n">
         <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
@@ -27915,13 +27915,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>273.7500849158696</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>173.0313165627905</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28016,7 +28016,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28028,10 +28028,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,16 +28061,16 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>168.3228816996628</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>54.72293255183087</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28851,7 +28851,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29337,7 +29337,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>-5.780283390417846e-13</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -30036,7 +30036,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
         <v>38.45624955336179</v>
@@ -31293,16 +31293,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
         <v>539.9786897190645</v>
@@ -31314,7 +31314,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
         <v>16.4376645838976</v>
@@ -31363,7 +31363,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31375,16 +31375,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
         <v>256.4624964168761</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31469,7 +31469,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523479</v>
@@ -31478,7 +31478,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31597,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31609,34 +31609,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31694,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31706,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>303.4024373464759</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>230.1272937575231</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>379.4203056753705</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32311,16 +32311,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862122</v>
@@ -32329,13 +32329,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32554,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>303.4297552732306</v>
       </c>
       <c r="P21" t="n">
-        <v>468.3778278510275</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32791,25 +32791,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>616.5397119226052</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32943,7 +32943,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33028,25 +33028,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>246.9596973201444</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>338.1920576279218</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33265,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>545.3845241768652</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>230.1272937575231</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33502,25 +33502,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>616.5397119226058</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,34 +33727,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>726.7533607666132</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,34 +33964,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>248.7449369209194</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34213,25 +34213,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34450,10 +34450,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34462,16 +34462,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>211.3773391483997</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34783,7 +34783,7 @@
         <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>352.6335057535159</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820405</v>
@@ -34795,13 +34795,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>280.0487856294274</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
         <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34938,19 +34938,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
         <v>308.745693963795</v>
@@ -34959,7 +34959,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>640.5848321000389</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>436.2707275254362</v>
+        <v>514.7099619750469</v>
       </c>
       <c r="Q6" t="n">
         <v>116.4807223308546</v>
@@ -35093,13 +35093,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
@@ -35108,13 +35108,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>304.632674239197</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>165.5609983721169</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>98.78558167418976</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,25 +35731,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>237.2862717533522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35959,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394599</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35977,13 +35977,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,25 +36205,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>160.8335108287862</v>
       </c>
       <c r="P21" t="n">
-        <v>334.4034204366973</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36366,7 +36366,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193518</v>
@@ -36439,25 +36439,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>477.985332142731</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36591,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36676,25 +36676,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>108.4053175402702</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>196.0580237059035</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,22 +36916,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>406.830144396991</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>98.78558167418976</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37150,25 +37150,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>477.9853321427316</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>584.6193268445949</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,28 +37618,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>110.1905571410452</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37861,25 +37861,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38098,10 +38098,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38110,16 +38110,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>71.39556506237817</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_12_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_12_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3365457.30456328</v>
+        <v>3367217.834866065</v>
       </c>
     </row>
     <row r="7">
@@ -664,22 +664,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>220.8789552701361</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -718,13 +718,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>196.699784115679</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -825,19 +825,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>78.18089085363205</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,13 +867,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>98.89148327532398</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -907,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>267.3376021249895</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>59.48550737293719</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>105.5257324397438</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>225.4462865161405</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1141,16 +1141,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>136.2058693932652</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>196.6997841156786</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>197.4147107719971</v>
+        <v>197.4147107719974</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710085</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>152.3242997534473</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1779,10 +1779,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2019,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428212</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2244,19 +2244,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>137.761022548695</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>0.8253826161909023</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428213</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428209</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>160.1763464053464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881294</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2955,13 +2955,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3009,13 +3009,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>185.4048731212358</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>153.5899618586515</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3201,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3429,13 +3429,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>80.08971311158757</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3480,19 +3480,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>75.00788511618036</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3663,16 +3663,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>137.9792024346631</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3903,13 +3903,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,16 +3951,16 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>245.8796921214428</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4137,25 +4137,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>239.7247859410132</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>728.3028554854573</v>
+        <v>1586.913505738324</v>
       </c>
       <c r="C2" t="n">
-        <v>359.3403385450455</v>
+        <v>1217.950988797912</v>
       </c>
       <c r="D2" t="n">
-        <v>359.3403385450455</v>
+        <v>859.685290191162</v>
       </c>
       <c r="E2" t="n">
-        <v>359.3403385450455</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F2" t="n">
-        <v>352.3948377958421</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G2" t="n">
-        <v>340.730491560535</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4366,16 +4366,16 @@
         <v>2562.339328400155</v>
       </c>
       <c r="V2" t="n">
-        <v>2231.276441056585</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W2" t="n">
-        <v>1878.507785786471</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X2" t="n">
-        <v>1505.042027525391</v>
+        <v>2363.652677778257</v>
       </c>
       <c r="Y2" t="n">
-        <v>1114.902695549579</v>
+        <v>1973.513345802446</v>
       </c>
     </row>
     <row r="3">
@@ -4391,13 +4391,13 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488047</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
         <v>165.443278618252</v>
@@ -4409,28 +4409,28 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
         <v>560.1394111735141</v>
       </c>
       <c r="L3" t="n">
-        <v>909.2465818694948</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M3" t="n">
-        <v>1272.508600828715</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N3" t="n">
-        <v>1659.79372942566</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O3" t="n">
-        <v>1991.864164601822</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434119</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4442,7 +4442,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4464,49 +4464,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>871.8507152289181</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C4" t="n">
-        <v>702.9145323010113</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D4" t="n">
-        <v>552.7978928886755</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E4" t="n">
-        <v>552.7978928886755</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
@@ -4515,25 +4515,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1536.555732927705</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1536.555732927705</v>
       </c>
       <c r="U4" t="n">
-        <v>1347.327782578335</v>
+        <v>1536.555732927705</v>
       </c>
       <c r="V4" t="n">
-        <v>1092.643294372448</v>
+        <v>1281.871244721818</v>
       </c>
       <c r="W4" t="n">
-        <v>1092.643294372448</v>
+        <v>1281.871244721818</v>
       </c>
       <c r="X4" t="n">
-        <v>1092.643294372448</v>
+        <v>1053.881693823801</v>
       </c>
       <c r="Y4" t="n">
-        <v>871.8507152289181</v>
+        <v>833.0891146802707</v>
       </c>
     </row>
     <row r="5">
@@ -4543,40 +4543,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2051.040280862503</v>
+        <v>1445.96558289315</v>
       </c>
       <c r="C5" t="n">
-        <v>1682.077763922091</v>
+        <v>1077.003065952739</v>
       </c>
       <c r="D5" t="n">
-        <v>1323.812065315341</v>
+        <v>718.7373673459883</v>
       </c>
       <c r="E5" t="n">
-        <v>938.0238127170967</v>
+        <v>332.9491147477441</v>
       </c>
       <c r="F5" t="n">
-        <v>527.0379079274892</v>
+        <v>62.9111328033102</v>
       </c>
       <c r="G5" t="n">
-        <v>111.333157651778</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H5" t="n">
-        <v>111.333157651778</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816077</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4585,34 +4585,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="V5" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="W5" t="n">
-        <v>2437.640120926625</v>
+        <v>2209.570673130042</v>
       </c>
       <c r="X5" t="n">
-        <v>2437.640120926625</v>
+        <v>1836.104914868962</v>
       </c>
       <c r="Y5" t="n">
-        <v>2437.640120926625</v>
+        <v>1445.96558289315</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K6" t="n">
-        <v>560.1394111735141</v>
+        <v>614.5430248380223</v>
       </c>
       <c r="L6" t="n">
-        <v>854.8429682049857</v>
+        <v>909.2465818694941</v>
       </c>
       <c r="M6" t="n">
-        <v>1218.104987164206</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1605.390115761151</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O6" t="n">
-        <v>1937.460550937313</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>621.5776595052477</v>
+        <v>682.9724752679349</v>
       </c>
       <c r="C7" t="n">
-        <v>452.6414765773408</v>
+        <v>514.036292340028</v>
       </c>
       <c r="D7" t="n">
-        <v>452.6414765773408</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E7" t="n">
-        <v>304.7283829949477</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F7" t="n">
-        <v>157.8384354970373</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4758,19 +4758,19 @@
         <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1347.327782578335</v>
+        <v>1408.722598341022</v>
       </c>
       <c r="V7" t="n">
-        <v>1092.643294372448</v>
+        <v>1154.038110135135</v>
       </c>
       <c r="W7" t="n">
-        <v>803.2261243354874</v>
+        <v>864.6209400981746</v>
       </c>
       <c r="X7" t="n">
-        <v>803.2261243354874</v>
+        <v>864.6209400981746</v>
       </c>
       <c r="Y7" t="n">
-        <v>803.2261243354874</v>
+        <v>864.6209400981746</v>
       </c>
     </row>
     <row r="8">
@@ -4780,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1586.913505738324</v>
+        <v>934.6665353554993</v>
       </c>
       <c r="C8" t="n">
-        <v>1217.950988797912</v>
+        <v>565.7040184150876</v>
       </c>
       <c r="D8" t="n">
-        <v>859.685290191162</v>
+        <v>207.4383198083371</v>
       </c>
       <c r="E8" t="n">
-        <v>473.8970375929177</v>
+        <v>207.4383198083371</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331017</v>
+        <v>200.4928190591336</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2467865680031</v>
+        <v>188.8284728238266</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816077</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4822,34 +4822,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="W8" t="n">
-        <v>2562.339328400155</v>
+        <v>2084.871465656513</v>
       </c>
       <c r="X8" t="n">
-        <v>2363.652677778257</v>
+        <v>1711.405707395433</v>
       </c>
       <c r="Y8" t="n">
-        <v>1973.513345802446</v>
+        <v>1321.266375419621</v>
       </c>
     </row>
     <row r="9">
@@ -4880,22 +4880,22 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380227</v>
+        <v>614.5430248380223</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694943</v>
+        <v>909.2465818694941</v>
       </c>
       <c r="M9" t="n">
         <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O9" t="n">
         <v>1991.864164601821</v>
@@ -4938,7 +4938,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>517.189556406156</v>
+        <v>517.1895564061562</v>
       </c>
       <c r="C10" t="n">
         <v>348.2533734782492</v>
@@ -4950,37 +4950,37 @@
         <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -5004,10 +5004,10 @@
         <v>1147.620151277943</v>
       </c>
       <c r="X10" t="n">
-        <v>919.6306003799259</v>
+        <v>919.630600379926</v>
       </c>
       <c r="Y10" t="n">
-        <v>698.8380212363958</v>
+        <v>698.8380212363959</v>
       </c>
     </row>
     <row r="11">
@@ -5032,22 +5032,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
         <v>2206.55866301478</v>
@@ -5056,34 +5056,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,16 +5114,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>409.1360811687895</v>
+        <v>409.1360811687896</v>
       </c>
       <c r="L12" t="n">
         <v>904.4616873845483</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>868.6673633290468</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>699.7311804011399</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>549.6145409888042</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888042</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2043.199616443681</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2043.199616443681</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1788.515128237794</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1499.097958200834</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1271.108407302816</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1050.315828159286</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5272,46 +5272,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,19 +5503,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075811</v>
@@ -5530,25 +5530,25 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270447</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5746,37 +5746,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
         <v>4606.285157492578</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
@@ -5843,7 +5843,7 @@
         <v>1072.713683962606</v>
       </c>
       <c r="N21" t="n">
-        <v>1700.311647517213</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>696.7084350851671</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C22" t="n">
-        <v>527.7722521572603</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D22" t="n">
-        <v>527.7722521572603</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E22" t="n">
-        <v>379.8591585748671</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F22" t="n">
-        <v>232.9692110769568</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797189</v>
+        <v>94.65038286230612</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199802</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1616.556199993915</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1327.139029956954</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>1099.149479058937</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>878.3568999154069</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5968,70 +5968,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270447</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6147,52 +6147,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6220,55 +6220,55 @@
         <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803938</v>
@@ -6314,16 +6314,16 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1896.176478190824</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6414,22 +6414,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6451,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332388</v>
@@ -6478,22 +6478,22 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263527</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1688.385853854706</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1501.108204237296</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>1501.108204237296</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="32">
@@ -6691,28 +6691,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6858,52 +6858,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6931,34 +6931,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1016.58045691144</v>
+        <v>734.6461798836018</v>
       </c>
       <c r="C37" t="n">
-        <v>847.644273983533</v>
+        <v>565.7099969556949</v>
       </c>
       <c r="D37" t="n">
-        <v>697.5276345711973</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888042</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1901.695539989114</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1647.011051783227</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>1198.22892174168</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="38">
@@ -7165,37 +7165,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,13 +7250,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429803</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="41">
@@ -7411,13 +7411,13 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
         <v>2206.55866301478</v>
@@ -7493,19 +7493,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7599,22 +7599,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1977.461080510508</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1729.097755135313</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7657,13 +7657,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>560.7825789706076</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>391.8463960427007</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D46" t="n">
-        <v>241.729756630365</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7839,19 +7839,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8063,7 +8063,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>54.95314511566568</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8075,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>240.4465442417443</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3273467878346</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>265.0304328515146</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>193.327346787835</v>
+        <v>193.3273467878346</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>-5.458725572646025e-13</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,10 +23469,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>65.08115057384094</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194174</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>27.76311574357382</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>139.469330230033</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194173</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856552</v>
@@ -24654,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24843,13 +24843,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24897,13 +24897,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>101.1181252153552</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>72.11969353038569</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25317,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>68.52575990662478</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,19 +25368,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>211.1765892730638</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25551,16 +25551,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25596,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>114.1584408891649</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25791,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,16 +25839,16 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>6.257951202385186</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>46.45968844823096</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>712335.1449660739</v>
+        <v>712335.1449660738</v>
       </c>
     </row>
     <row r="4">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>693393.9373166531</v>
+        <v>693393.9373166532</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>693393.9373166532</v>
+        <v>693393.9373166531</v>
       </c>
     </row>
     <row r="16">
@@ -26313,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>738937.5928778546</v>
+      </c>
+      <c r="C2" t="n">
         <v>738937.5928778544</v>
       </c>
-      <c r="C2" t="n">
-        <v>738937.5928778546</v>
-      </c>
       <c r="D2" t="n">
-        <v>738937.5928778545</v>
+        <v>738937.5928778544</v>
       </c>
       <c r="E2" t="n">
-        <v>726431.9397210057</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="F2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="G2" t="n">
         <v>726431.9397210052</v>
       </c>
       <c r="H2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="I2" t="n">
         <v>726431.9397210052</v>
       </c>
-      <c r="I2" t="n">
-        <v>726431.9397210054</v>
-      </c>
       <c r="J2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210049</v>
       </c>
       <c r="K2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="L2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.939721005</v>
       </c>
       <c r="M2" t="n">
         <v>726431.9397210052</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245462</v>
+        <v>507485.4416245457</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099828</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289266</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,13 +26420,13 @@
         <v>134318.0002618637</v>
       </c>
       <c r="C4" t="n">
-        <v>134318.0002618638</v>
+        <v>134318.0002618637</v>
       </c>
       <c r="D4" t="n">
-        <v>134318.0002618638</v>
+        <v>134318.0002618636</v>
       </c>
       <c r="E4" t="n">
-        <v>8117.312426731934</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="F4" t="n">
         <v>8117.312426731974</v>
@@ -26435,22 +26435,22 @@
         <v>8117.312426731974</v>
       </c>
       <c r="H4" t="n">
+        <v>8117.312426731974</v>
+      </c>
+      <c r="I4" t="n">
+        <v>8117.312426731974</v>
+      </c>
+      <c r="J4" t="n">
         <v>8117.312426731934</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>8117.312426731936</v>
-      </c>
-      <c r="J4" t="n">
-        <v>8117.312426731974</v>
-      </c>
-      <c r="K4" t="n">
-        <v>8117.312426731974</v>
       </c>
       <c r="L4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="M4" t="n">
-        <v>8117.312426732015</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="N4" t="n">
         <v>8117.312426731974</v>
@@ -26472,10 +26472,10 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-603069.9633997737</v>
+        <v>-603069.9633997732</v>
       </c>
       <c r="C6" t="n">
-        <v>511681.8201761461</v>
+        <v>511681.8201761457</v>
       </c>
       <c r="D6" t="n">
-        <v>511681.820176146</v>
+        <v>511681.8201761459</v>
       </c>
       <c r="E6" t="n">
-        <v>109359.2765914636</v>
+        <v>109671.9179203849</v>
       </c>
       <c r="F6" t="n">
-        <v>616844.7182160092</v>
+        <v>617157.3595449307</v>
       </c>
       <c r="G6" t="n">
-        <v>616844.7182160092</v>
+        <v>617157.3595449305</v>
       </c>
       <c r="H6" t="n">
-        <v>616844.7182160092</v>
+        <v>617157.3595449307</v>
       </c>
       <c r="I6" t="n">
-        <v>616844.7182160094</v>
+        <v>617157.3595449305</v>
       </c>
       <c r="J6" t="n">
-        <v>449239.5404060269</v>
+        <v>449552.1817349474</v>
       </c>
       <c r="K6" t="n">
-        <v>616844.7182160093</v>
+        <v>617157.3595449305</v>
       </c>
       <c r="L6" t="n">
-        <v>616844.7182160093</v>
+        <v>617157.3595449304</v>
       </c>
       <c r="M6" t="n">
-        <v>484237.4244870824</v>
+        <v>484550.0658160038</v>
       </c>
       <c r="N6" t="n">
-        <v>616844.7182160094</v>
+        <v>617157.3595449307</v>
       </c>
       <c r="O6" t="n">
-        <v>616844.7182160093</v>
+        <v>617157.3595449307</v>
       </c>
       <c r="P6" t="n">
-        <v>616844.7182160094</v>
+        <v>617157.3595449307</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26792,31 +26792,31 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241349</v>
+        <v>433.9106082241344</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26983,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000392</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,22 +27384,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>80.13959729226929</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27438,13 +27438,13 @@
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>173.03131656279</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27545,19 +27545,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>67.2401571692992</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,13 +27587,13 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>95.77097708641351</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27627,16 +27627,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>139.5384436167219</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>6.224405299533309</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
@@ -27678,13 +27678,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27788,7 +27788,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>60.78086760506034</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>147.2515091551288</v>
@@ -27830,7 +27830,7 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>60.78086760506008</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27861,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>164.8126831691402</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
@@ -27915,10 +27915,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>173.0313165627905</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28028,7 +28028,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28070,7 +28070,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>54.72293255183087</v>
+        <v>54.72293255183064</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28851,7 +28851,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29325,7 +29325,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29568,7 +29568,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>-5.018581577683018e-13</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -30036,7 +30036,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -31044,43 +31044,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,7 +31135,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040588</v>
@@ -31144,25 +31144,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31235,13 +31235,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
         <v>38.45624955336179</v>
@@ -31293,16 +31293,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
         <v>539.9786897190645</v>
@@ -31314,7 +31314,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
         <v>16.4376645838976</v>
@@ -31363,7 +31363,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31375,16 +31375,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
         <v>256.4624964168761</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31469,7 +31469,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523479</v>
@@ -31478,7 +31478,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31597,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31609,34 +31609,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31694,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31706,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>303.4024373464759</v>
+        <v>305.187676947251</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32554,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>303.4297552732306</v>
+        <v>303.4297552732313</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>400.5469039565762</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32943,7 +32943,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33034,19 +33034,19 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>338.1920576279218</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33265,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
         <v>230.1272937575231</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
         <v>400.5469039565762</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
         <v>400.5469039565762</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34213,7 +34213,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34225,10 +34225,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,16 +34777,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
         <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>352.6335057535159</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
         <v>391.1970995928739</v>
@@ -34795,13 +34795,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>490.1260733652765</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
         <v>278.0112915831069</v>
@@ -34868,7 +34868,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
         <v>262.6644876295069</v>
@@ -34877,7 +34877,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,19 +34938,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
         <v>308.745693963795</v>
@@ -34959,7 +34959,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>379.9148430313194</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>514.7099619750469</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,13 +35093,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
@@ -35108,13 +35108,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313198</v>
+        <v>379.9148430313194</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>165.5609983721169</v>
+        <v>167.346237972892</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,16 +35731,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,16 +35968,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,25 +36205,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>160.8335108287862</v>
+        <v>160.8335108287869</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>257.9506595121318</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36682,19 +36682,19 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>196.0580237059035</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,7 +36916,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36925,13 +36925,13 @@
         <v>98.78558167418976</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
         <v>257.9506595121318</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
         <v>257.9506595121318</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37861,7 +37861,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37873,10 +37873,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
